--- a/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T2.xlsx
+++ b/data/raw/CW_field_meassurements/Raw_data_lab/240120_Resultaten_ronde_T2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aseye001\Sona_Phd\MIBIREM\MiBiPreT_FieldSites\constructed-wetland\data\raw\CW_field_meassurements\Raw_data_lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FA329EA-BBEC-4968-9FC8-3ED5A96C6A31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E934029-C0C0-40BE-9343-9F57C0C24AF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1566" uniqueCount="516">
   <si>
     <t>Analysis</t>
   </si>
@@ -1563,6 +1563,12 @@
   </si>
   <si>
     <t>1899-12-30T13:04:55</t>
+  </si>
+  <si>
+    <t>nitriet-N</t>
+  </si>
+  <si>
+    <t>nitraat-N</t>
   </si>
 </sst>
 </file>
@@ -1968,8 +1974,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:X62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5540,7 +5546,7 @@
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>385</v>
+        <v>514</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>387</v>
@@ -5688,7 +5694,7 @@
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>388</v>
+        <v>515</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>387</v>
@@ -7468,18 +7474,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6bf0a9f1-8f76-4db1-b737-dd267e3134be" xsi:nil="true"/>
-    <Documenttype xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">Document</Documenttype>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B380A3F0EA06B24F8F03FA0CEBF15084" ma:contentTypeVersion="14" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="c0085e6b87ca3933b267e9388aac1dca">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ae75e153-7bf0-480f-b1ba-ba3c106dd4e5" xmlns:ns3="7233923c-a7e0-4e49-b29e-d359fd888d60" xmlns:ns4="6bf0a9f1-8f76-4db1-b737-dd267e3134be" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9213f80c0b63d29d9b80bcf564b8da0f" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="ae75e153-7bf0-480f-b1ba-ba3c106dd4e5"/>
@@ -7714,6 +7708,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6bf0a9f1-8f76-4db1-b737-dd267e3134be" xsi:nil="true"/>
+    <Documenttype xmlns="7233923c-a7e0-4e49-b29e-d359fd888d60">Document</Documenttype>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -7724,24 +7730,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C5BD27-41E8-414F-98EA-CCAC988155D1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="7233923c-a7e0-4e49-b29e-d359fd888d60"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="6bf0a9f1-8f76-4db1-b737-dd267e3134be"/>
-    <ds:schemaRef ds:uri="ae75e153-7bf0-480f-b1ba-ba3c106dd4e5"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D0A182E1-E4E6-4BCB-96F6-E7F0C29DE054}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7761,6 +7749,24 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A9C5BD27-41E8-414F-98EA-CCAC988155D1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="7233923c-a7e0-4e49-b29e-d359fd888d60"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="6bf0a9f1-8f76-4db1-b737-dd267e3134be"/>
+    <ds:schemaRef ds:uri="ae75e153-7bf0-480f-b1ba-ba3c106dd4e5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{94E2F83A-DF8A-4954-A8C2-A30EAB7616DA}">
   <ds:schemaRefs>
